--- a/results/test1/raw_outputs/perplexity_outputs.xlsx
+++ b/results/test1/raw_outputs/perplexity_outputs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,117 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>plaintiffs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>defendants</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ticker</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>class_period_start</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>class_period_end</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cause_1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>cause_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cause_3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cause_4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cause_5</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>cause_6</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>plaintiffs_f1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>defendants_f1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ticker_match</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>causes_f1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>composite_f1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>prompt_tokens</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>completion_tokens</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>cause_7</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cause_8</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>cause_9</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>cause_10</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>cause_11</t>
         </is>
       </c>
     </row>
@@ -467,19 +577,89 @@
         </is>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6596ae0af04344',t:'MTc2OTgyNDU0NS4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+          <t>United Association National Pension Fund (UANPF); Saskatchewan Healthcare Employees’ Pension Plan (SHEPP)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Carvana Co.; Ernest Garcia III; Mark Jenkins; Ernest Garcia II; Ryan Keeton; Benjamin Huston; Michael Maroone; Neha Parikh; Ira Platt; Greg Sullivan; Stephen Palmer; Citigroup Global Markets Inc.; J.P. Morgan Securities LLC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CVNA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>§10(b) of the Exchange Act and Rule 10b-5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>§20(a) of the Exchange Act</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>§20(A) of the Exchange Act</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>§11 of the Securities Act</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>§12(a)(2) of the Securities Act</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>§15 of the Securities Act</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="T2" t="n">
+        <v>100314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>181</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -493,19 +673,73 @@
         </is>
       </c>
       <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Glen Littleton</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tesla, Inc.; Elon R. Musk; Brad W. Buss; Robyn Denholm; Ira Ehrenpreis; Antonio J. Gracias; James Murdoch; Kimbal Musk; Linda Johnson Rice</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2018-08-07</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2018-08-17</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Violation of Section 10(b) of the Securities Exchange Act of 1934 and Rule 10b-5 against Tesla and Musk</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Violation of Section 20(a) of the Securities Exchange Act of 1934 against the Board of Directors</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6596bb6e1c4344',t:'MTc2OTgyNDU0Ny4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S3" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="T3" t="n">
+        <v>27399</v>
+      </c>
+      <c r="U3" t="n">
+        <v>162</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -519,24 +753,78 @@
         </is>
       </c>
       <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fiyyaz Pirani, as Trustee of Imperium Irrevocable Trust</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Netflix, Inc.; Reed Hastings; Ted Sarandos; Spencer Neumann; Gregory Peters</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Violation of Section 10(b) of the Securities Exchange Act of 1934 and Rule 10b-5 - making materially false and misleading statements and omitting material facts regarding Netflix's subscriber growth, market penetration, and account sharing</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Violation of Section 20(a) of the Securities Exchange Act of 1934 - controlling person liability for Individual Defendants (Hastings, Sarandos, Neumann, Peters)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6596c8586c4344',t:'MTc2OTgyNDU0OS4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="P4" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="T4" t="n">
+        <v>44444</v>
+      </c>
+      <c r="U4" t="n">
+        <v>213</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cand_22_cv_00105</t>
+          <t>cand_22_cv_02094</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -545,24 +833,78 @@
         </is>
       </c>
       <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sjunde AP-Fonden (AP7) (Lead Plaintiff)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lucid Group, Inc.; Peter Rawlinson; Sherry House</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021-11-15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>COUNT I: Violation of Section 10(b) of the Exchange Act and SEC Rule 10b-5 (against all Defendants)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>COUNT II: Violation of Section 20(a) of the Exchange Act (against the Individual Defendants)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6596d55a4c4344',t:'MTc2OTgyNDU1MS4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S5" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="T5" t="n">
+        <v>76312</v>
+      </c>
+      <c r="U5" t="n">
+        <v>118</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cand_22_cv_02094</t>
+          <t>cand_23_cv_02560</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -571,24 +913,78 @@
         </is>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6596e25dff4344',t:'MTc2OTgyNDU1My4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+          <t>New England Teamsters Pension Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cutera, Inc.; David Mowry; Rohan Seth; J. Daniel Plants; Sheila Hopkins; Taylor Harris; Stuart Drummond; Vikram Varma</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CUTR</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Violation of Section 10(b) of the Exchange Act and Rule 10b-5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Violation of Section 20(a) of the Exchange Act</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="T6" t="n">
+        <v>67188</v>
+      </c>
+      <c r="U6" t="n">
+        <v>114</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cand_23_cv_02560</t>
+          <t>cand_23_cv_03518</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,24 +993,86 @@
         </is>
       </c>
       <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dr. Myo Thant; Branden Schenkhuizen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Rain Oncology Inc. (f/k/a Rain Therapeutics Inc.); Avanish Vellanki; Richard Bryce; Franklin Berger; Aaron Davis; Gorjan Hrustanovic; Tran Nguyen; Peter Radovich; Stefani A. Wolff</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>RAIN</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Violation of Section 10(b) of the Securities Exchange Act of 1934 and Rule 10b-5 (fraudulent statements and omissions regarding Phase 2 Bypass clinical trial strategy)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Violation of Section 20(a) of the Securities Exchange Act of 1934 (controlling person liability)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Violation of Section 11 of the Securities Act of 1933 (material misstatements and omissions in registration statement and prospectus)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Violation of Section 15 of the Securities Act of 1933 (control person liability for Section 11 violations)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6596ef79804344',t:'MTc2OTgyNDU1NS4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S7" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="T7" t="n">
+        <v>31769</v>
+      </c>
+      <c r="U7" t="n">
+        <v>283</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cand_23_cv_03518</t>
+          <t>cand_24_cv_03170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -623,24 +1081,82 @@
         </is>
       </c>
       <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Lead Plaintiff (name not specified in complaint text); Ken Kula</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fastly, Inc.; Todd Nightingale; Ronald W. Kisling</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FSLY</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Securities Exchange Act of 1934</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Violations of Rule 10b-5 promulgated under the Securities Exchange Act of 1934</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Securities Exchange Act of 1934</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6596fc9c654344',t:'MTc2OTgyNDU1Ny4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S8" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="T8" t="n">
+        <v>25150</v>
+      </c>
+      <c r="U8" t="n">
+        <v>178</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cand_24_cv_03170</t>
+          <t>cand_24_cv_04196</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -649,24 +1165,78 @@
         </is>
       </c>
       <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Daniel Pogrebinsky; Benjamin Pouladian; David Mead; Aaron Goldman; Dr. Vijaykumar Agrawal; Kent Maguire; Timothy McKillican; Zi Xu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vicor Corporation; Patrizio Vinciarelli</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>VICR</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Securities Exchange Act of 1934 and Rule 10b-5(b) - Misrepresentation and omission of material facts regarding a significant existing customer contract</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Securities Exchange Act of 1934 - Control person liability against Patrizio Vinciarelli</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597098e694344',t:'MTc2OTgyNDU1OS4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>11605</v>
+      </c>
+      <c r="U9" t="n">
+        <v>222</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cand_24_cv_04196</t>
+          <t>cand_3_22-cv-00956</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -675,24 +1245,78 @@
         </is>
       </c>
       <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Steamfitters Local 449 Pension &amp; Retirement Security Funds</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SunPower Corporation; Peter Faricy; Manavendra S. Sial</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>SPWR</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2021-08-03</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Violation of §10(b) of the Exchange Act and Rule 10b-5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Violation of §20(a) of the Exchange Act</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c65971669bd4344',t:'MTc2OTgyNDU2MS4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>20373</v>
+      </c>
+      <c r="U10" t="n">
+        <v>95</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cand_3_21-cv-09767</t>
+          <t>casd_3_23-cv-01216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -701,24 +1325,78 @@
         </is>
       </c>
       <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dipak Patel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ImmunityBio, Inc.; Richard Adcock; David C. Sachs; Patrick Soon-Shiong</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>IBRX</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Securities Exchange Act of 1934</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597235be34344',t:'MTc2OTgyNDU2My4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S11" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="T11" t="n">
+        <v>33935</v>
+      </c>
+      <c r="U11" t="n">
+        <v>124</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cand_3_22-cv-00956</t>
+          <t>ctd-3-23-cv-01035</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -727,24 +1405,78 @@
         </is>
       </c>
       <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>New England Teamsters Pension Fund; Westchester Putnam Counties Heavy &amp; Highway Laborers Local 60 Benefits Fund; United Union of Roofers, Waterproofers &amp; Allied Workers Local Union No. 8 WBPA Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RTX Corporation; Gregory Hayes; Neil Mitchill; Anthony F. O'Brien; Christopher T. Calio; Shane Eddy</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (fraudulent misrepresentations and omissions regarding GTF engine airworthiness and profitability; failure to disclose Powdered Metal Defect)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Securities Exchange Act of 1934 (control person liability for Individual Defendants)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597304e5f4344',t:'MTc2OTgyNDU2NS4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S12" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="T12" t="n">
+        <v>63150</v>
+      </c>
+      <c r="U12" t="n">
+        <v>246</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>casd_3_23-cv-01216</t>
+          <t>dcd-1_23-cv-02055</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -753,24 +1485,82 @@
         </is>
       </c>
       <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Plaintiffs acquired Danaher securities (as set forth in Certifications ECF Nos. 1-1, 17-3)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Danaher Corporation; Rainer M. Blair; Matthew R. McGrew; Emmanuel Ligner</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Exchange Act and Rule 10b-5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Exchange Act</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Violations of Item 303 of Regulation S-K</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c65973d288b4344',t:'MTc2OTgyNDU2Ny4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="P13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T13" t="n">
+        <v>36857</v>
+      </c>
+      <c r="U13" t="n">
+        <v>151</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ctd-3_24-cv-01727</t>
+          <t>dde_ 23_cv_1466</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,24 +1569,82 @@
         </is>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c65974a1c034344',t:'MTc2OTgyNDU2OS4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+          <t>AltShares Event-Driven ETF; AltShares Merger Arbitrage ETF; Kryger Event Fund Ltd.; Kryger Enhanced Fund Ltd.; ODS Capital LLC</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Focus Financial Partners Inc.; George S. LeMieux; Elizabeth R. Neuhoff; Greg S. Morganroth, M.D.; Joseph Feliciani, Jr.; Ruediger “Rudy” Adolf; Rajini Sundar Kodialam; James D. Carey; Fayez S. Muhtadie; James Shanahan; Leonard Chang; J. Russell McGranahan; Clayton, Dubilier &amp; Rice, LLC (CD&amp;R); Goldman Sachs &amp; Co. LLC; Jefferies LLC; Stone Point Capital LLC; Vinson &amp; Elkins L.L.P. (V&amp;E); Potter Anderson &amp; Corroon LLP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>FOCS</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5(a)-(c)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Section 14(a) of the Exchange Act and Rule 14a-9</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Section 20(a) of the Exchange Act</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="T14" t="n">
+        <v>34171</v>
+      </c>
+      <c r="U14" t="n">
+        <v>258</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-01599</t>
+          <t>dde_21_cv_55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -805,24 +1653,78 @@
         </is>
       </c>
       <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Kim Kengle as trustee of the Kim K. Kengle 2000 Trust; Roseanne Lacy</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Walmart Inc.; Douglas C. McMillon; M. Brett Biggs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2017-03-31</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2020-12-22</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Exchange Act and Rule 10b-5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Exchange Act</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597571dbe4344',t:'MTc2OTgyNDU3Mi4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="P15" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="T15" t="n">
+        <v>44802</v>
+      </c>
+      <c r="U15" t="n">
+        <v>129</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-02055</t>
+          <t>flsd-1_23-cv-23139</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -831,24 +1733,102 @@
         </is>
       </c>
       <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Kristoffer Jon Hind; Jason Thomas Waiton; Christopher Campbell; Paul Douglas Stoeppelwerth; Lucas Longmire; Thomas Blair Phillips; Tyler Jenkins; Jorden David Neil Malcolm; Robert Taylor Yates; Rafael Reyes Salmeron; Ryan Anthony Floyd; Matt Scott Vogel; Mark Alan Bentley; Peter Shane Donahue; Agata Agnieszka Powers; Avya Lindsey Waiton; Timothy Michael Morgan; Tarsis Carvalho Humphreys; Zachary Michael Sellers; Brandon Michael Harrold</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CFT Solutions, LLC; FxWinning Limited; Renan de Rocha Gomes Bastos (de Rocha); Rafael Brito Cutie (Brito Cutie); Arthur Percy; Roman Cardenas; David Merino</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>COUNT I: Violation of the Securities Act of 1933, 15 U.S.C. § 77e and 77l(a)(1) – against Defendants CFT and FxWinning</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>COUNT II: Violation of the Securities Exchange Act of 1934 and Rule 10b-5, 15 U.S.C. § 78j(b) and C.F.R. § 240.10b-5 – against Defendants CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>COUNT III: Violation of the Commodities Exchange Act, Sections 6 and 25, 7 U.S.C. §§ 6b, 6e, 6o, and 25 – against Defendants CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>COUNT IV: Violation of the Florida Securities and Investor Protection Act, Sections 517.301 and 517.211 – against Defendants CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>COUNT V: Breach of Contract – against FxWinning</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>COUNT VI: Breach of Fiduciary Duty – against all Defendants</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c659764b85a4344',t:'MTc2OTgyNDU3NC4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
+      <c r="S16" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="T16" t="n">
+        <v>15972</v>
+      </c>
+      <c r="U16" t="n">
+        <v>651</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>COUNT VII: Fraud in the Inducement – against Defendants CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>COUNT VIII: Negligent Misrepresentations – against Defendants CFT, FxWinning, de Rocha, Cardenas, and Brito Cutie</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>COUNT IX: Conversion – against all Defendants</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>COUNT X: Unjust Enrichment – against all Defendants</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>COUNT XI: Civil Conspiracy – against all Defendants</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dde_ 23_cv_1466</t>
+          <t>ilnd-1-21-cv-04349</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -857,24 +1837,86 @@
         </is>
       </c>
       <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>The Phoenix Insurance Company Ltd.; The Phoenix Pension &amp; Provident Funds; City of Melbourne Firefighters’ Retirement System</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ATI Physical Therapy, Inc. f/k/a Fortress Value Acquisition Corp. II; Labeed Diab; Joseph Jordan; Andrew A. McKnight; Joshua A. Pack; Marc Furstein; Leslee Cowen; Aaron F. Hood; Carmen A. Policy; Rakefet Russak-Aminoach; Sunil Gulati</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ATIP</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2021-10-19</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (Against ATI and the ATI Individual Defendants)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Securities Exchange Act of 1934 (Against the ATI Individual Defendants)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Violations of Section 14(a) of the Securities Exchange Act of 1934 and SEC Rule 14a-9 (Against All Defendants)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Securities Exchange Act of 1934 in Connection with the Proxy Claims (Against the ATI Individual Defendants and the FVAC Defendants)</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c659771ba7a4344',t:'MTc2OTgyNDU3Ni4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S17" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="T17" t="n">
+        <v>30741</v>
+      </c>
+      <c r="U17" t="n">
+        <v>328</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dde_21_cv_55</t>
+          <t>mad-1-21-cv-10933</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -883,24 +1925,78 @@
         </is>
       </c>
       <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Julian Quinones</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Frequency Therapeutics, Inc.; David L. Lucchino; Christoph Liebel</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>FREQ</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2020-10-29</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Securities Exchange Act of 1934 and Rule 10b-5 - Material misstatements and omissions regarding Phase 2a clinical trial enrollment criteria and bias</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Securities Exchange Act of 1934 - Control person liability for Individual Defendants</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c65977ead8d4344',t:'MTc2OTgyNDU3OC4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S18" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="T18" t="n">
+        <v>16395</v>
+      </c>
+      <c r="U18" t="n">
+        <v>176</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>flsd-1_23-cv-23139</t>
+          <t>mied-4-23-cv-13132</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -909,24 +2005,86 @@
         </is>
       </c>
       <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>City of Hollywood Police Officers’ Retirement System; Plymouth County Retirement Association</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>General Motors Company (GM); Cruise LLC (Cruise); Mary T. Barra; Paul A. Jacobson; Kyle Vogt; Daniel Ammann; Doug L. Parks; Wayne G. West</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>COUNT I FOR VIOLATIONS OF SECTION 10(B) OF THE EXCHANGE ACT AND RULE 10B-5(B) AGAINST GM, CRUISE, AND THE INDIVIDUAL DEFENDANTS</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>COUNT II FOR VIOLATIONS OF SECTION 10(B) OF THE EXCHANGE ACT AND RULE 10B-5(A)/(C) AGAINST GM, CRUISE, AND THE INDIVIDUAL DEFENDANTS</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>COUNT III FOR VIOLATIONS OF SECTION 20(A) OF THE EXCHANGE ACT AGAINST DEFENDANTS BARRA, JACOBSON, AND PARKS AS CONTROL PERSONS OF GM</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>COUNT IV FOR VIOLATIONS OF SECTION 20(A) OF THE EXCHANGE ACT AGAINST THE INDIVIDUAL DEFENDANTS AS CONTROL PERSONS OF CRUISE</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c65978bc8a04344',t:'MTc2OTgyNDU4MC4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>64629</v>
+      </c>
+      <c r="U19" t="n">
+        <v>264</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ilnd-1_20_cv_05593</t>
+          <t>nysd_20_cv_04494</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -935,24 +2093,78 @@
         </is>
       </c>
       <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Handelsbanken Fonder AB; Public Employees' Retirement System of Mississippi; State of Rhode Island, Office of the General Treasurer, on behalf of the Employees' Retirement System of Rhode Island; Louisiana Sheriffs' Pension &amp; Relief Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Wells Fargo &amp; Co.; Timothy J. Sloan; John R. Shrewsberry; Charles W. Scharf; C. Allen Parker; Elizabeth (Betsy) Duke</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2018-02-02</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Securities Exchange Act of 1934 and SEC Rule 10b-5 (fraudulent statements and omissions regarding Wells Fargo's compliance with 2018 Consent Orders)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Securities Exchange Act of 1934 (controlling person liability for insider defendants)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c659798ab374344',t:'MTc2OTgyNDU4Mi4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S20" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="T20" t="n">
+        <v>50773</v>
+      </c>
+      <c r="U20" t="n">
+        <v>255</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nysd_1_21-cv-11222</t>
+          <t>nysd_22-cv-07111</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -961,24 +2173,86 @@
         </is>
       </c>
       <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>RTD Bros LLC; Todd Benn; Tom Benn; Tomasz Rzedzian; Preston Million</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Lottery.com, Inc. (f/k/a Trident Acquisitions Corp. (TDAC)); Lawrence Anthony “Tony” DiMatteo III; Ryan Dickinson; Matthew Clemenson; Kathryn Lever; Marat Rosenberg; Vadim Komissarov; Thomas Gallagher; Gennadii Butkevych; Ilya Ponomarev</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LTRY</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2020-11-19</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Violations of Section 10(b) of the Exchange Act and Rule 10b-5 Against All Defendants</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Violations of Section 20(a) of the Exchange Act Against the Individual Defendants</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Violation of Section 14(a) of the Exchange Act and Rule 14a-9 Against All Defendants</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Violation of Section 20(a) of the Exchange Act Against the Individual Defendants</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597a5adee4344',t:'MTc2OTgyNDU4NC4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S21" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="T21" t="n">
+        <v>27187</v>
+      </c>
+      <c r="U21" t="n">
+        <v>214</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nysd_20_cv_04494</t>
+          <t>nysd_22_cv_10292</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -987,24 +2261,78 @@
         </is>
       </c>
       <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Steven Christiansen</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Spectrum Pharmaceuticals, Inc.; Thomas J. Riga; Francois J. Lebel; Nora E. Brennan</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SPPI</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Violation of Section 10(b) of the Securities Exchange Act of 1934 and Rule 10b-5</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Violation of Section 20(a) of the Securities Exchange Act of 1934</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597b2890c4344',t:'MTc2OTgyNDU4Ni4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S22" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="T22" t="n">
+        <v>24067</v>
+      </c>
+      <c r="U22" t="n">
+        <v>125</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nysd_22_cv_10292</t>
+          <t>nysd_23_cv_9476</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1013,24 +2341,78 @@
         </is>
       </c>
       <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Genesee County Employees’ Retirement System</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DocGo Inc.; Stan Vashovsky; Anthony Capone; Andre Oberholzer</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DCGO</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Violations of §10(b) of the 1934 Act and SEC Rule 10b-5 (Against All Defendants)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Violations of §20(a) of the 1934 Act (Against All Defendants)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597bf9c2d4344',t:'MTc2OTgyNDU4OC4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T23" t="n">
+        <v>15904</v>
+      </c>
+      <c r="U23" t="n">
+        <v>110</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nysd_23_cv_9476</t>
+          <t>nysd_24_cv_310</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1039,24 +2421,90 @@
         </is>
       </c>
       <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>The Retirement Plan for Chicago Transit Authority Employees (Lead Plaintiff); Oklahoma Firefighters Pension and Retirement System (Additional Named Plaintiff)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mobileye Global Inc.; Amnon Shashua; Moran Shemesh Rojansky; Anat Heller; Daniel Galves</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MBLY</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Section 10(b) of the Exchange Act and Rule 10b-5(b)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Section 10(b) of the Exchange Act and Rules 10b-5(a) and (c)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Section 20(a) of the Exchange Act</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Section 11 of the Securities Act</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Section 15 of the Securities Act</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597cc7fe64344',t:'MTc2OTgyNDU5MC4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>43423</v>
+      </c>
+      <c r="U24" t="n">
+        <v>181</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nysd_24_cv_310</t>
+          <t>txnd-4_24-cv-00673</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1065,24 +2513,78 @@
         </is>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597d96a4c4344',t:'MTc2OTgyNDU5Mi4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+          <t>Dominik Dumancic; Luis Vicente Davidoff Cracasso; Richard Wilkinson</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>American Airlines Group Inc.; Robert D. Isom, Jr.; Devon E. May; Vasu S. Raja</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>AAL</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Violation of Section 10(b) of the Exchange Act and Rule 10b-5</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Violation of Section 20(a) of the Exchange Act</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="T25" t="n">
+        <v>55227</v>
+      </c>
+      <c r="U25" t="n">
+        <v>114</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>txnd-4_24-cv-00673</t>
+          <t>txsd-4-21-cv-02473</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1091,19 +2593,73 @@
         </is>
       </c>
       <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Utah Retirement Systems (URS); Construction Laborers Pension Trust for Southern California (Southern California Laborers)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Concho Resources Inc. (Concho); ConocoPhillips (as successor-in-interest to Concho); Timothy A. Leach; Jack F. Harper; C. William Giraud; E. Joseph Wright; Brenda R. Schroer</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CXO</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2018-02-21</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2019-07-31</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>COUNT I: For Violation of Section 10(b) of the Exchange Act and Rule 10b-5 Against All Defendants</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>COUNT II: For Violation of Section 20(a) of the Exchange Act Against the Individual Defendants</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>litellm.AuthenticationError: AuthenticationError: PerplexityException - &lt;html&gt;
-&lt;head&gt;&lt;title&gt;401 Authorization Required&lt;/title&gt;&lt;/head&gt;
-&lt;body&gt;
-&lt;center&gt;&lt;h1&gt;401 Authorization Required&lt;/h1&gt;&lt;/center&gt;
-&lt;hr&gt;&lt;center&gt;openresty/1.27.4&lt;/center&gt;
-&lt;script&gt;(function(){function c(){var b=a.contentDocument||a.contentWindow.document;if(b){var d=b.createElement('script');d.innerHTML="window.__CF$cv$params={r:'9c6597e67d414344',t:'MTc2OTgyNDU5NS4wMDAwMDA='};var a=document.createElement('script');a.nonce='';a.src='/cdn-cgi/challenge-platform/scripts/jsd/main.js';document.getElementsByTagName('head')[0].appendChild(a);";b.getElementsByTagName('head')[0].appendChild(d)}}if(document.body){var a=document.createElement('iframe');a.height=1;a.width=1;a.style.position='absolute';a.style.top=0;a.style.left=0;a.style.border='none';a.style.visibility='hidden';document.body.appendChild(a);if('loading'!==document.readyState)c();else if(window.addEventListener)document.addEventListener('DOMContentLoaded',c);else{var e=document.onreadystatechange||function(){};document.onreadystatechange=function(b){e(b);'loading'!==document.readyState&amp;&amp;(document.onreadystatechange=e,c())}}}})();&lt;/script&gt;&lt;/body&gt;
-&lt;/html&gt;</t>
-        </is>
-      </c>
+      <c r="S26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>66808</v>
+      </c>
+      <c r="U26" t="n">
+        <v>162</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
